--- a/biology/Zoologie/Cratérope_brun/Cratérope_brun.xlsx
+++ b/biology/Zoologie/Cratérope_brun/Cratérope_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_brun</t>
+          <t>Cratérope_brun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turdoides plebejus
 Le Cratérope brun (Turdoides plebejus) est une espèce de passereaux de la famille des Leiothrichidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_brun</t>
+          <t>Cratérope_brun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure entre 20 et 25 centimètres de longueur et pèse environ 60 à 70 grammes. Son plumage est marron gris, sa gorge blanc strié, ses plumes de couleur bronze et le bec noir.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_brun</t>
+          <t>Cratérope_brun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans l'ouest, le centre et l'est de l'Afrique depuis le sud mauritanien, le Sénégal jusqu'au Soudan, l'Ouganda et l'ouest kényan.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_brun</t>
+          <t>Cratérope_brun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans la savane, les zones ripariennes, les parcs, les jardins, les plaines boisées et les terres cultivées. 
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_brun</t>
+          <t>Cratérope_brun</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau creuse son nid dans le sol.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_brun</t>
+          <t>Cratérope_brun</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit d'insectes variés, de baies, de fruits et à l'occasion de petites charognes.
 </t>
